--- a/COVID_1st_derivative.xlsx
+++ b/COVID_1st_derivative.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>1/22/20</t>
   </si>
@@ -194,6 +194,9 @@
   </si>
   <si>
     <t>3/21/20</t>
+  </si>
+  <si>
+    <t>3/22/20</t>
   </si>
 </sst>
 </file>
@@ -551,13 +554,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BI7"/>
+  <dimension ref="A1:BJ7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:61">
+    <row r="1" spans="1:62">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,8 +741,11 @@
       <c r="BI1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
-    <row r="2" spans="1:61">
+    <row r="2" spans="1:62">
       <c r="A2" s="1">
         <v>11</v>
       </c>
@@ -920,8 +926,11 @@
       <c r="BI2">
         <v>2365</v>
       </c>
+      <c r="BJ2">
+        <v>2660</v>
+      </c>
     </row>
-    <row r="3" spans="1:61">
+    <row r="3" spans="1:62">
       <c r="A3" s="1">
         <v>16</v>
       </c>
@@ -1102,8 +1111,11 @@
       <c r="BI3">
         <v>6557</v>
       </c>
+      <c r="BJ3">
+        <v>5560</v>
+      </c>
     </row>
-    <row r="4" spans="1:61">
+    <row r="4" spans="1:62">
       <c r="A4" s="1">
         <v>98</v>
       </c>
@@ -1284,8 +1296,11 @@
       <c r="BI4">
         <v>6389</v>
       </c>
+      <c r="BJ4">
+        <v>7783</v>
+      </c>
     </row>
-    <row r="5" spans="1:61">
+    <row r="5" spans="1:62">
       <c r="A5" s="1">
         <v>154</v>
       </c>
@@ -1466,8 +1481,11 @@
       <c r="BI5">
         <v>55</v>
       </c>
+      <c r="BJ5">
+        <v>92</v>
+      </c>
     </row>
-    <row r="6" spans="1:61">
+    <row r="6" spans="1:62">
       <c r="A6" s="1">
         <v>157</v>
       </c>
@@ -1648,8 +1666,11 @@
       <c r="BI6">
         <v>1705</v>
       </c>
+      <c r="BJ6">
+        <v>1745</v>
+      </c>
     </row>
-    <row r="7" spans="1:61">
+    <row r="7" spans="1:62">
       <c r="A7" s="1">
         <v>192</v>
       </c>
@@ -1829,6 +1850,9 @@
       </c>
       <c r="BI7">
         <v>53</v>
+      </c>
+      <c r="BJ7">
+        <v>61</v>
       </c>
     </row>
   </sheetData>
